--- a/output/inference_results/test_sheets/batch_004/test_sheet (38).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (38).xlsx
@@ -467,12 +467,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4--10</t>
+          <t>4-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -486,12 +486,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.10↓45--77</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.10↓45--77</t>
+          <t>45-77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -510,12 +510,12 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80.00 ↑20--40</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.00 ↑20--40</t>
+          <t>20-40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -530,12 +530,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3--8</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -550,12 +550,12 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>←0.5--5</t>
+          <t>0.5-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -570,12 +570,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0--1</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -584,7 +584,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALY%</t>
+          <t>ALY</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -600,7 +600,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LIC%</t>
+          <t>LIC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -627,12 +627,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>↓2--7.7</t>
+          <t>2-7.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -651,12 +651,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>↑0.8--4</t>
+          <t>0.8-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10~9/L</t>
+          <t>10^9/L</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -664,7 +664,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>单核细胞</t>
+          <t>单核细胞数</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.12--0.8</t>
+          <t>0.12-0.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -684,7 +684,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞</t>
+          <t>嗜酸性粒细胞数</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -695,7 +695,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>↓0.05--0.5</t>
+          <t>0.05-0.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0--0.1</t>
+          <t>0-0.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -744,14 +744,14 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>126.00</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>110--160</t>
+          <t>110-160</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.5--5.5</t>
+          <t>3.5-5.5</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.36--0.5</t>
+          <t>0.36-0.5</t>
         </is>
       </c>
     </row>
@@ -792,14 +792,14 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>83.90</t>
+          <t>83.9</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0186--100</t>
+          <t>0186-100</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>26--31</t>
+          <t>26-31</t>
         </is>
       </c>
     </row>
@@ -820,14 +820,14 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平均血红蛋白浓度336.00</t>
+          <t>336.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>310--370</t>
+          <t>310-370</t>
         </is>
       </c>
     </row>
@@ -836,14 +836,14 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>37--50</t>
+          <t>37-50</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11.5--14.</t>
+          <t>11.5-14.</t>
         </is>
       </c>
     </row>
@@ -868,14 +868,14 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>547.00↑100--300</t>
+          <t>547.0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>547.00↑100--300</t>
+          <t>100-300</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9--13</t>
+          <t>9-13</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.350</t>
+          <t>0.35</t>
         </is>
       </c>
     </row>
@@ -909,14 +909,14 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9--17</t>
+          <t>9-17</t>
         </is>
       </c>
     </row>

--- a/output/inference_results/test_sheets/batch_004/test_sheet (38).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (38).xlsx
@@ -467,12 +467,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4-10</t>
+          <t>4--10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10^9/L</t>
+          <t>10~9/L</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -486,12 +486,12 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45-77</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -510,12 +510,12 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20-40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -530,12 +530,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>3--8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -550,12 +550,12 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5-5</t>
+          <t>←0.5--5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -570,12 +570,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0--1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -584,7 +584,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALY</t>
+          <t>ALY%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -600,7 +600,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LIC</t>
+          <t>LIC%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -627,12 +627,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-7.7</t>
+          <t>↓2--7.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10^9/L</t>
+          <t>10.9/L</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -651,12 +651,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.8-4</t>
+          <t>↑0.8--4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10^9/L</t>
+          <t>10~9/L</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -664,7 +664,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>单核细胞数</t>
+          <t>单核细胞</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.12-0.8</t>
+          <t>0.12--0.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -684,7 +684,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>嗜酸性粒细胞数</t>
+          <t>嗜酸性粒细胞</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -695,7 +695,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.05-0.5</t>
+          <t>↓0.05--0.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -715,7 +715,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-0.1</t>
+          <t>0--0.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -744,14 +744,14 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>126.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>110-160</t>
+          <t>110--160</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.5-5.5</t>
+          <t>3.5--5.5</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.36-0.5</t>
+          <t>0.36--0.5</t>
         </is>
       </c>
     </row>
@@ -792,14 +792,14 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>83.9</t>
+          <t>83.90</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0186-100</t>
+          <t>0186--100</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>26-31</t>
+          <t>26--31</t>
         </is>
       </c>
     </row>
@@ -820,14 +820,14 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>336.0</t>
+          <t>均</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>310-370</t>
+          <t>310--370</t>
         </is>
       </c>
     </row>
@@ -836,14 +836,14 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>37-50</t>
+          <t>37--50</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11.5-14.</t>
+          <t>11.5--14.</t>
         </is>
       </c>
     </row>
@@ -868,14 +868,14 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>547.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>100-300</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9-13</t>
+          <t>9--13</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.350</t>
         </is>
       </c>
     </row>
@@ -909,14 +909,14 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9-17</t>
+          <t>9--17</t>
         </is>
       </c>
     </row>
